--- a/biology/Médecine/Dorothée_Kindé_Gazard/Dorothée_Kindé_Gazard.xlsx
+++ b/biology/Médecine/Dorothée_Kindé_Gazard/Dorothée_Kindé_Gazard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Doroth%C3%A9e_Kind%C3%A9_Gazard</t>
+          <t>Dorothée_Kindé_Gazard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Dorothée Kindé-Gazard, de son vrai nom Dorothée Akoko Kindé-Gazard, est une médecin spécialiste en parasitologie-mycologie et professeur titulaire à la faculté des sciences et santé de l'université d'Abomey-Calavi au Bénin. Personnalité politique féminine du Bénin, elle est à deux reprises ministre de la Santé dans le gouvernement du président Mathieu Kérékou et dans celui du président Thomas Boni Yayi[1].
+Dorothée Kindé-Gazard, de son vrai nom Dorothée Akoko Kindé-Gazard, est une médecin spécialiste en parasitologie-mycologie et professeur titulaire à la faculté des sciences et santé de l'université d'Abomey-Calavi au Bénin. Personnalité politique féminine du Bénin, elle est à deux reprises ministre de la Santé dans le gouvernement du président Mathieu Kérékou et dans celui du président Thomas Boni Yayi.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Doroth%C3%A9e_Kind%C3%A9_Gazard</t>
+          <t>Dorothée_Kindé_Gazard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carrière professionnelle
-Médecin de formation, spécialisée en parasitologie mycologie depuis 2004, elle est professeure agrégée à l'université d'Abomey Calavi[2].
-Carrière politique
-Dorothée Kindé Gazard est une scientifique, qui au cours de sa carrière politique, met en place une politique de lutte contre le paludisme au Bénin. Elle a coordonné le programme national de lutte contre le paludisme (PNLP) avec la distribution gratuite de moustiquaires imprégnées à la population. C'est également à ce titre qu'elle a fait partie du comité gouvernemental de l'épidémie du coronavirus au Bénin[3]. 
-Elle a contribué à l'innovation de plusieurs projets dans le secteur de la santé. Parmi ceux-ci « 120 jours pour équiper les hôpitaux et centres de santé du Bénin » a récolté plus de cinq milliards de francs CFA de dons en équipements répartis dans toutes les formations sanitaires publiques, sur l’étendue du territoire national. Gazard a initié Le Régime d’assurance maladie universelle (Ramu), qu’elle a conduit à la tête du secteur de la santé au Bénin. Le projet est co-conduit par la fondation Sanofi Espoir et Care Bénin[4].
+          <t>Carrière professionnelle</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médecin de formation, spécialisée en parasitologie mycologie depuis 2004, elle est professeure agrégée à l'université d'Abomey Calavi.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Doroth%C3%A9e_Kind%C3%A9_Gazard</t>
+          <t>Dorothée_Kindé_Gazard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière politique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dorothée Kindé Gazard est une scientifique, qui au cours de sa carrière politique, met en place une politique de lutte contre le paludisme au Bénin. Elle a coordonné le programme national de lutte contre le paludisme (PNLP) avec la distribution gratuite de moustiquaires imprégnées à la population. C'est également à ce titre qu'elle a fait partie du comité gouvernemental de l'épidémie du coronavirus au Bénin. 
+Elle a contribué à l'innovation de plusieurs projets dans le secteur de la santé. Parmi ceux-ci « 120 jours pour équiper les hôpitaux et centres de santé du Bénin » a récolté plus de cinq milliards de francs CFA de dons en équipements répartis dans toutes les formations sanitaires publiques, sur l’étendue du territoire national. Gazard a initié Le Régime d’assurance maladie universelle (Ramu), qu’elle a conduit à la tête du secteur de la santé au Bénin. Le projet est co-conduit par la fondation Sanofi Espoir et Care Bénin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dorothée_Kindé_Gazard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doroth%C3%A9e_Kind%C3%A9_Gazard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2014 : prix Harvard des leaders de la Santé à Boston aux États-Unis[5],[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2014 : prix Harvard des leaders de la Santé à Boston aux États-Unis,.</t>
         </is>
       </c>
     </row>
